--- a/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
+++ b/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
   <si>
     <t>土地坐落</t>
   </si>
@@ -234,7 +234,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>加特福生物科技</t>
+  </si>
+  <si>
+    <t>2012-04-19</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1342,13 +1354,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1367,13 +1379,22 @@
       <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1389,6 +1410,15 @@
       </c>
       <c r="G2" s="2">
         <v>100000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2">
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -1409,19 +1439,19 @@
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1429,19 +1459,19 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -1452,19 +1482,19 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -1475,19 +1505,19 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>7000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>

--- a/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
+++ b/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
   <si>
     <t>土地坐落</t>
   </si>
@@ -234,6 +234,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
   </si>
   <si>
     <t>加特福生物科技</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-19</t>
@@ -1354,13 +1360,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1388,13 +1394,16 @@
       <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1412,12 +1421,15 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2">
+        <v>77</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2">
         <v>607</v>
       </c>
     </row>
@@ -1439,19 +1451,19 @@
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1459,19 +1471,19 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -1482,19 +1494,19 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -1505,19 +1517,19 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>7000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>

--- a/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
+++ b/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
   <si>
     <t>土地坐落</t>
   </si>
@@ -237,6 +237,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -246,13 +249,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>加特福生物科技</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-19</t>
+  </si>
+  <si>
+    <t>tmpe2cb1</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1360,13 +1375,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1397,13 +1412,22 @@
       <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1421,16 +1445,25 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2">
+        <v>81</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2">
         <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1451,19 +1484,19 @@
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1471,19 +1504,19 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -1494,19 +1527,19 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -1517,19 +1550,19 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>7000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>

--- a/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
+++ b/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
@@ -19,9 +19,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段01220000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段03200000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段02420005地號</t>
+  </si>
+  <si>
+    <t>100000分之137</t>
+  </si>
+  <si>
+    <t>100000分之16</t>
+  </si>
+  <si>
+    <t>70000分之1182</t>
+  </si>
+  <si>
+    <t>李慶華</t>
+  </si>
+  <si>
+    <t>100年02月15曰</t>
+  </si>
+  <si>
+    <t>101年02月17曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>19050000(與0122000合購）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-19</t>
+  </si>
+  <si>
+    <t>tmpe2cb1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,106 +129,70 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市汐止區社后段社后頂小 段0122-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段0320-0000地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段0242-0005地號</t>
-  </si>
-  <si>
-    <t>100000 分 之137</t>
-  </si>
-  <si>
-    <t>100000 分 之16</t>
-  </si>
-  <si>
-    <t>70000分之 1182</t>
-  </si>
-  <si>
-    <t>李慶華</t>
-  </si>
-  <si>
-    <t>100 年 02 月15曰</t>
-  </si>
-  <si>
-    <t>101 年 02 月17曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>19,050,000(與 0122-000合 購）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段12023-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段12619-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段12620-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段12618-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐[t區社后段社后頂小 段12619-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段12617-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段〗2620-000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小 段04998-000建號</t>
+    <t>新北市汐止區社后段社后頂小段12023000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12619000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12620000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12618000建號</t>
+  </si>
+  <si>
+    <t>新北市汐[t區社后段社后頂小段12619000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12617000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段〗2620000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段04998000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>100000 分 之204</t>
-  </si>
-  <si>
-    <t>100000 分 之280</t>
-  </si>
-  <si>
-    <t>10000分之 58</t>
-  </si>
-  <si>
-    <t>100000 分 之 2626</t>
-  </si>
-  <si>
-    <t>100000 分 之0</t>
-  </si>
-  <si>
-    <t>10000分之 49</t>
-  </si>
-  <si>
-    <t>100000 分 之 3112</t>
-  </si>
-  <si>
-    <t>70000分之 1806</t>
-  </si>
-  <si>
-    <t>100 年 02 月15 H</t>
-  </si>
-  <si>
-    <t>100 年 03 月08曰</t>
-  </si>
-  <si>
-    <t>100 年 03 月08 H</t>
+    <t>100000分之204</t>
+  </si>
+  <si>
+    <t>100000分之280</t>
+  </si>
+  <si>
+    <t>10000分之58</t>
+  </si>
+  <si>
+    <t>100000分之2626</t>
+  </si>
+  <si>
+    <t>100000分之0</t>
+  </si>
+  <si>
+    <t>10000分之49</t>
+  </si>
+  <si>
+    <t>100000分之3112</t>
+  </si>
+  <si>
+    <t>70000分之1806</t>
+  </si>
+  <si>
+    <t>100年02月15H</t>
+  </si>
+  <si>
+    <t>100年03月08曰</t>
+  </si>
+  <si>
+    <t>100年03月08H</t>
   </si>
   <si>
     <t>貿賣</t>
   </si>
   <si>
-    <t>19，050,000(附 屬建物:陽台面 積 28.94)</t>
+    <t>19050000(附屬建物:陽台面積28.94)</t>
   </si>
   <si>
     <t>(共有部分）</t>
@@ -150,13 +201,13 @@
     <t>(扣有部分）</t>
   </si>
   <si>
-    <t>19’050，000(與 12023-000建 號一併購買,停</t>
-  </si>
-  <si>
-    <t>1,200,000(停 車位）</t>
-  </si>
-  <si>
-    <t>(附屬建物面 積:陽台5.64)</t>
+    <t>19050000(與12023000建號一併購買停</t>
+  </si>
+  <si>
+    <t>1200000(停車位）</t>
+  </si>
+  <si>
+    <t>(附屬建物面積:陽台5.64)</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -168,16 +219,16 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>NISSAN CEFIRO</t>
-  </si>
-  <si>
-    <t>中華 GRUNDER</t>
-  </si>
-  <si>
-    <t>87年12月 23日</t>
-  </si>
-  <si>
-    <t>100 年 09 月27曰</t>
+    <t>NISSANCEFIRO</t>
+  </si>
+  <si>
+    <t>中華GRUNDER</t>
+  </si>
+  <si>
+    <t>87年12月23日</t>
+  </si>
+  <si>
+    <t>100年09月27曰</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -198,10 +249,10 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行汐止分 行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行南京東 路分行</t>
+    <t>台新國際商業銀行汐止分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行南京東路分行</t>
   </si>
   <si>
     <t>永豐商業銀行中正分行</t>
@@ -216,12 +267,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -234,42 +279,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>加特福生物科技</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-19</t>
-  </si>
-  <si>
-    <t>tmpe2cb1</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -291,19 +306,16 @@
     <t>房屋貸款(車位）</t>
   </si>
   <si>
-    <t>台新國際商業銀行南京東路 分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行南京東路 分行 1</t>
-  </si>
-  <si>
-    <t>100年02月 17日</t>
-  </si>
-  <si>
-    <t>100年04月 14日</t>
-  </si>
-  <si>
-    <t>101年02月 22日</t>
+    <t>台新國際商業銀行南京東路分行1</t>
+  </si>
+  <si>
+    <t>100年02月17日</t>
+  </si>
+  <si>
+    <t>100年04月14日</t>
+  </si>
+  <si>
+    <t>101年02月22日</t>
   </si>
 </sst>
 </file>
@@ -662,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,179 +702,347 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1760</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2">
         <v>19050000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>607</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1760</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>607</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>1760</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>607</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>23425</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>607</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>23425</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>607</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>23425</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>607</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>1622</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2">
         <v>10000000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2">
+        <v>607</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -880,25 +1060,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -906,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>276.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -932,25 +1112,25 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>6179.44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -958,25 +1138,25 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>3769.14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -984,25 +1164,25 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>6357.48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1010,25 +1190,25 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>6179.44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1036,25 +1216,25 @@
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>3769.14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1062,25 +1242,25 @@
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>7533.95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1088,25 +1268,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>6179.44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1114,25 +1294,25 @@
         <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>3769.14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1140,25 +1320,25 @@
         <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2">
         <v>97.21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1176,22 +1356,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1199,22 +1379,22 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>1995</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1222,19 +1402,19 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
         <v>2378</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>490000</v>
@@ -1255,19 +1435,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1275,16 +1455,16 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>5682492</v>
@@ -1295,16 +1475,16 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>2531212</v>
@@ -1315,16 +1495,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>7175</v>
@@ -1335,16 +1515,16 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>97957</v>
@@ -1355,16 +1535,16 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1383,43 +1563,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1427,10 +1607,10 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>10000</v>
@@ -1439,28 +1619,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>607</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2">
         <v>74</v>
@@ -1481,22 +1661,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1504,22 +1684,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1527,22 +1707,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1550,22 +1730,22 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>7000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
+++ b/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -63,6 +63,12 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>新北市汐止區社后段社后頂小段01220000地號</t>
   </si>
   <si>
@@ -72,12 +78,12 @@
     <t>新北市汐止區社后段社后頂小段02420005地號</t>
   </si>
   <si>
+    <t>100000分之16</t>
+  </si>
+  <si>
     <t>100000分之137</t>
   </si>
   <si>
-    <t>100000分之16</t>
-  </si>
-  <si>
     <t>70000分之1182</t>
   </si>
   <si>
@@ -108,30 +114,15 @@
     <t>tmpe2cb1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>新北市汐止區社后段社后頂小段12023000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>19050000(附屬建物:陽台面積28.94)</t>
+  </si>
+  <si>
     <t>新北市汐止區社后段社后頂小段12619000建號</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>新北市汐止區社后段社后頂小段04998000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>100000分之204</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>貿賣</t>
   </si>
   <si>
-    <t>19050000(附屬建物:陽台面積28.94)</t>
-  </si>
-  <si>
     <t>(共有部分）</t>
   </si>
   <si>
@@ -210,45 +195,30 @@
     <t>(附屬建物面積:陽台5.64)</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>NISSANCEFIRO</t>
   </si>
   <si>
+    <t>87年12月23日</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>中華GRUNDER</t>
   </si>
   <si>
-    <t>87年12月23日</t>
-  </si>
-  <si>
     <t>100年09月27曰</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台新國際商業銀行汐止分行</t>
   </si>
   <si>
@@ -261,12 +231,6 @@
     <t>台北富邦商業銀行復興分</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -276,40 +240,16 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>加特福生物科技</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>100年02月17日</t>
+  </si>
+  <si>
     <t>房屋貸款(車位）</t>
   </si>
   <si>
     <t>台新國際商業銀行南京東路分行1</t>
-  </si>
-  <si>
-    <t>100年02月17日</t>
   </si>
   <si>
     <t>100年04月14日</t>
@@ -674,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,326 +663,321 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>1760</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2">
-        <v>19050000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>607</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.2816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>1760</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>607</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.2816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>23425</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1760</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>607</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00137</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>32.09225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>23425</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2">
         <v>607</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3.748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>23425</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M6" s="2">
         <v>607</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1622</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>23425</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M7" s="2">
         <v>607</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1622</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2">
-        <v>607</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="2">
-        <v>20</v>
+      <c r="P7" s="2">
+        <v>0.0168857142857143</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>27.3886285714286</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +987,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1060,285 +995,259 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>276.5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
-        <v>276.5</v>
+        <v>6179.44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
-        <v>6179.44</v>
+        <v>3769.14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
-        <v>3769.14</v>
+        <v>6357.48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
-        <v>6357.48</v>
+        <v>6179.44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2">
-        <v>6179.44</v>
+        <v>3769.14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="2">
-        <v>3769.14</v>
+        <v>7533.95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
-        <v>7533.95</v>
+        <v>6179.44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
-        <v>6179.44</v>
+        <v>3769.14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
-        <v>3769.14</v>
+        <v>97.21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2">
-        <v>97.21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1347,6 +1256,224 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1995</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2378</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>490000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5682492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2531212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>97957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1356,396 +1483,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
+      </c>
+      <c r="E1" s="1">
+        <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1995</v>
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="2">
-        <v>2378</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
+      <c r="E3" s="2">
+        <v>7000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2">
-        <v>490000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5682492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2531212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>63</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
-        <v>97957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2">
-        <v>607</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="2">
-        <v>17150000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>108</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>109</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
+++ b/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -78,12 +78,12 @@
     <t>新北市汐止區社后段社后頂小段02420005地號</t>
   </si>
   <si>
+    <t>100000分之137</t>
+  </si>
+  <si>
     <t>100000分之16</t>
   </si>
   <si>
-    <t>100000分之137</t>
-  </si>
-  <si>
     <t>70000分之1182</t>
   </si>
   <si>
@@ -117,69 +117,69 @@
     <t>新北市汐止區社后段社后頂小段12023000建號</t>
   </si>
   <si>
+    <t>新北市汐止區社后段社后頂小段12619000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12620000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12618000建號</t>
+  </si>
+  <si>
+    <t>新北市汐[t區社后段社后頂小段12619000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段12617000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段〗2620000建號</t>
+  </si>
+  <si>
+    <t>新北市汐止區社后段社后頂小段04998000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>100000分之204</t>
+  </si>
+  <si>
+    <t>100000分之280</t>
+  </si>
+  <si>
+    <t>10000分之58</t>
+  </si>
+  <si>
+    <t>100000分之2626</t>
+  </si>
+  <si>
+    <t>100000分之0</t>
+  </si>
+  <si>
+    <t>10000分之49</t>
+  </si>
+  <si>
+    <t>100000分之3112</t>
+  </si>
+  <si>
+    <t>70000分之1806</t>
+  </si>
+  <si>
+    <t>100年02月15H</t>
+  </si>
+  <si>
+    <t>100年03月08曰</t>
+  </si>
+  <si>
+    <t>100年03月08H</t>
+  </si>
+  <si>
+    <t>貿賣</t>
+  </si>
+  <si>
     <t>19050000(附屬建物:陽台面積28.94)</t>
   </si>
   <si>
-    <t>新北市汐止區社后段社后頂小段12619000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段12620000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段12618000建號</t>
-  </si>
-  <si>
-    <t>新北市汐[t區社后段社后頂小段12619000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段12617000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段〗2620000建號</t>
-  </si>
-  <si>
-    <t>新北市汐止區社后段社后頂小段04998000建號</t>
-  </si>
-  <si>
-    <t>100000分之204</t>
-  </si>
-  <si>
-    <t>100000分之280</t>
-  </si>
-  <si>
-    <t>10000分之58</t>
-  </si>
-  <si>
-    <t>100000分之2626</t>
-  </si>
-  <si>
-    <t>100000分之0</t>
-  </si>
-  <si>
-    <t>10000分之49</t>
-  </si>
-  <si>
-    <t>100000分之3112</t>
-  </si>
-  <si>
-    <t>70000分之1806</t>
-  </si>
-  <si>
-    <t>100年02月15H</t>
-  </si>
-  <si>
-    <t>100年03月08曰</t>
-  </si>
-  <si>
-    <t>100年03月08H</t>
-  </si>
-  <si>
-    <t>貿賣</t>
-  </si>
-  <si>
     <t>(共有部分）</t>
   </si>
   <si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>加特福生物科技</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -614,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,7 +678,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -692,7 +698,9 @@
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>19050000</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
@@ -712,18 +720,18 @@
         <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00016</v>
+        <v>0.00137</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.2816</v>
+        <v>2.4112</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -732,7 +740,7 @@
         <v>1760</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -763,7 +771,7 @@
         <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.00016</v>
@@ -774,13 +782,13 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>23425</v>
+        <v>1760</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -794,9 +802,7 @@
       <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
@@ -816,18 +822,18 @@
         <v>30</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.00137</v>
+        <v>0.00016</v>
       </c>
       <c r="Q4" s="2">
-        <v>32.09225</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -847,7 +853,9 @@
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
       </c>
@@ -867,18 +875,18 @@
         <v>30</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.00016</v>
+        <v>0.00137</v>
       </c>
       <c r="Q5" s="2">
-        <v>3.748</v>
+        <v>32.09225</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -887,7 +895,7 @@
         <v>23425</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -918,7 +926,7 @@
         <v>30</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.00016</v>
@@ -929,29 +937,27 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23425</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1622</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="2">
-        <v>10000000</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
@@ -971,12 +977,65 @@
         <v>30</v>
       </c>
       <c r="O7" s="2">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00016</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>20</v>
       </c>
-      <c r="P7" s="2">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1622</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>607</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
         <v>0.0168857142857143</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q8" s="2">
         <v>27.3886285714286</v>
       </c>
     </row>
@@ -987,99 +1046,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="2">
         <v>276.5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>607</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>276.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="C3" s="2">
+        <v>6179.44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>607</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00204</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>12.6060576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6179.44</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="2">
+        <v>3769.14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3769.14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6357.48</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1091,21 +1231,48 @@
         <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>607</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0028</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>10.553592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
-        <v>6179.44</v>
+        <v>6357.48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1117,21 +1284,48 @@
         <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>607</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0058</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>36.873384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2">
-        <v>3769.14</v>
+        <v>6179.44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1145,71 +1339,152 @@
       <c r="H6" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>607</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2">
+        <v>31</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.02626</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>162.2720944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="2">
+        <v>3769.14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>607</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="2">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
         <v>7533.95</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>607</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="2">
+        <v>33</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0049</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>36.916355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6179.44</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6179.44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3769.14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -1218,36 +1493,143 @@
         <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2">
+        <v>607</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="2">
+        <v>34</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.03112</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>192.3041728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3769.14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="2">
+        <v>607</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="2">
+        <v>35</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
         <v>97.21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="2">
+        <v>607</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="2">
+        <v>36</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0258</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2.508018</v>
       </c>
     </row>
   </sheetData>
@@ -1256,224 +1638,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1995</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2378</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
-        <v>490000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5682492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2531212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>63</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2">
-        <v>7175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>97957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>66</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1483,7 +1647,312 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1995</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2378</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2">
+        <v>490000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5682492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5682492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2531212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>97957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -1495,7 +1964,7 @@
         <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
@@ -1503,7 +1972,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>75</v>
@@ -1512,13 +1981,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2">
+        <v>17150000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
@@ -1526,24 +1995,47 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>109</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>7000000</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
+++ b/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -195,19 +195,22 @@
     <t>(附屬建物面積:陽台5.64)</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>NISSANCEFIRO</t>
   </si>
   <si>
+    <t>中華GRUNDER</t>
+  </si>
+  <si>
     <t>87年12月23日</t>
   </si>
   <si>
+    <t>100年09月27曰</t>
+  </si>
+  <si>
     <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>中華GRUNDER</t>
-  </si>
-  <si>
-    <t>100年09月27曰</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -1639,38 +1642,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1">
-        <v>1995</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>1995</v>
@@ -1679,21 +1703,42 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2">
         <v>2378</v>
@@ -1709,6 +1754,27 @@
       </c>
       <c r="G3" s="2">
         <v>490000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>607</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1726,13 +1792,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1746,13 +1812,13 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1766,13 +1832,13 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1786,13 +1852,13 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1806,13 +1872,13 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1826,13 +1892,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1860,13 +1926,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1898,7 +1964,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1910,13 +1976,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1952,19 +2018,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1">
         <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
@@ -1975,19 +2041,19 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
@@ -1998,19 +2064,19 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>25</v>
@@ -2021,19 +2087,19 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>7000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>25</v>

--- a/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
+++ b/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -195,6 +195,9 @@
     <t>(附屬建物面積:陽台5.64)</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -211,6 +214,9 @@
   </si>
   <si>
     <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -1131,7 +1137,7 @@
         <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -1184,7 +1190,7 @@
         <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -1237,7 +1243,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1290,7 +1296,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1343,7 +1349,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1396,7 +1402,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1449,7 +1455,7 @@
         <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1502,7 +1508,7 @@
         <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1555,7 +1561,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1608,7 +1614,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1653,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1694,7 +1700,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>1995</v>
@@ -1703,16 +1709,16 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1738,7 +1744,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2">
         <v>2378</v>
@@ -1747,7 +1753,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1756,7 +1762,7 @@
         <v>490000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1792,13 +1798,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1812,13 +1818,13 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1832,13 +1838,13 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1852,13 +1858,13 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1872,13 +1878,13 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1892,13 +1898,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1926,13 +1932,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1964,7 +1970,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1976,13 +1982,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -2018,19 +2024,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
@@ -2041,19 +2047,19 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
@@ -2064,19 +2070,19 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>25</v>
@@ -2087,19 +2093,19 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2">
         <v>7000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>25</v>

--- a/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
+++ b/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -219,34 +219,43 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>台新國際商業銀行汐止分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行中正分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行復興分</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台新國際商業銀行汐止分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行中正分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行復興分</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>加特福生物科技</t>
@@ -1790,13 +1799,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1807,24 +1816,45 @@
         <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5682492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1832,19 +1862,40 @@
       <c r="F2" s="2">
         <v>5682492</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>607</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1852,19 +1903,40 @@
       <c r="F3" s="2">
         <v>2531212</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>607</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1872,19 +1944,40 @@
       <c r="F4" s="2">
         <v>7175</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>607</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1892,24 +1985,68 @@
       <c r="F5" s="2">
         <v>97957</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>607</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>543820</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>607</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1932,13 +2069,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1967,10 +2104,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1982,13 +2119,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -2006,7 +2143,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2024,19 +2161,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1">
         <v>17150000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
@@ -2044,22 +2181,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
@@ -2067,22 +2204,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>25</v>
@@ -2090,22 +2227,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2">
         <v>7000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>25</v>

--- a/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
+++ b/legislator/property/output/normal/李慶華_2012-04-19_財產申報表_tmpe2cb1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -264,22 +264,31 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>房屋貸款(車位）</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行南京東路分行1</t>
+  </si>
+  <si>
     <t>100年02月17日</t>
   </si>
   <si>
-    <t>房屋貸款(車位）</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行南京東路分行1</t>
-  </si>
-  <si>
     <t>100年04月14日</t>
   </si>
   <si>
     <t>101年02月22日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2153,38 +2162,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1">
-        <v>17150000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -2196,41 +2226,83 @@
         <v>17150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>607</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -2242,10 +2314,31 @@
         <v>7000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2">
+        <v>607</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
